--- a/Remoras/TriHyb/metadataTemplate.xlsx
+++ b/Remoras/TriHyb/metadataTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HMD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa ZoBell\Documents\GitHub\Triton\Remoras\TriHyb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,9 +81,6 @@
     <t>Product_Version</t>
   </si>
   <si>
-    <t>Data analysis was performed using the TriHyb Remora in Triton, to produce HMD spectra of sound levels from oceanic audio recordings. Processing utilized MATLAB code provided as supplemental material in Martin et al. (2021b). Power spectral density (PSD) levels were computed from 1-minute segments of audio data. Frequency-dependent calibrations are included in the HMD. By applying fast Fourier transform (FFT) with length equal to the sample rate, using Hann window and 50% overlap, PSD estimates (V^2/Hz) were computed with a frequency resolution of 1 Hz and a temporal resolution of 1 second. The 1 second PSD estimates from each 1-minute segment were averaged, and the average spectrum for each minute was further processed to an HMD spectrum following Martin et al. (2021b).</t>
-  </si>
-  <si>
     <t>Original hybrid millidecade spectra were produced by the Marine Bioacoustics Research Collaborative (MBARC)</t>
   </si>
   <si>
@@ -121,21 +118,6 @@
   </si>
   <si>
     <t>NOAA National Centers for Environmental Information</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hybrid Millidecade Band Sound Pressure Levels Computed at 1 Minute Reoslution from Oceanic Passive Aacoustic Monitoring Recordings at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MBARC_CINMS_B_50</t>
-    </r>
   </si>
   <si>
     <r>
@@ -160,41 +142,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hybrid millidecade band sound pressure levels Computed at 1 Minute Reoslution from Oceanic Passive Aacoustic Monitoring Recordings at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MBARC_CINMS_B_50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> processed by the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Marine Bioacoustics Research Collaborative</t>
     </r>
   </si>
   <si>
@@ -280,6 +227,59 @@
   </si>
   <si>
     <t>[34.2500, -120.0259]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hybrid Millidecade Band Sound Pressure Levels Computed at 1 Minute Resolution from Oceanic Passive Aacoustic Monitoring Recordings at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MBARC_CINMS_B_50</t>
+    </r>
+  </si>
+  <si>
+    <t>Data analysis was performed using the TriHyb Remora in Triton, to produce HMD spectra of sound levels from oceanic audio recordings. Processing utilized MATLAB code provided as supplemental material in Martin et al. (2021b). Power spectral density (PSD) levels were computed from 1-minute segments of audio data. Frequency-dependent calibrations are included in the HMD. By applying fast Fourier transform (FFT) with length equal to the sample rate, using Hann window and 50% overlap, PSD estimates (V^2/Hz) were computed with a frequency resolution of 1 Hz and a temporal resolution of 1 second. Median 1 -minute segments were computed from the  1 second PSD estimates, and the median spectrum for each minute was further processed to an HMD spectrum following Martin et al. (2021b).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hybrid millidecade band sound pressure levels Computed at 1 Minute Resolution from Oceanic Passive Acoustic Monitoring Recordings at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MBARC_CINMS_B_50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processed by the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Marine Bioacoustics Research Collaborative</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,99 +1227,99 @@
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="5" customFormat="1" ht="237" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X2" s="6">
         <v>50</v>
@@ -1337,7 +1337,7 @@
         <v>4000</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Remoras/TriHyb/metadataTemplate.xlsx
+++ b/Remoras/TriHyb/metadataTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa ZoBell\Documents\GitHub\Triton\Remoras\TriHyb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzobell\OneDrive - UC San Diego\Documents\GitHub\Triton\Triton\Remoras\TriHyb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -244,9 +244,6 @@
     </r>
   </si>
   <si>
-    <t>Data analysis was performed using the TriHyb Remora in Triton, to produce HMD spectra of sound levels from oceanic audio recordings. Processing utilized MATLAB code provided as supplemental material in Martin et al. (2021b). Power spectral density (PSD) levels were computed from 1-minute segments of audio data. Frequency-dependent calibrations are included in the HMD. By applying fast Fourier transform (FFT) with length equal to the sample rate, using Hann window and 50% overlap, PSD estimates (V^2/Hz) were computed with a frequency resolution of 1 Hz and a temporal resolution of 1 second. Median 1 -minute segments were computed from the  1 second PSD estimates, and the median spectrum for each minute was further processed to an HMD spectrum following Martin et al. (2021b).</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Hybrid millidecade band sound pressure levels Computed at 1 Minute Resolution from Oceanic Passive Acoustic Monitoring Recordings at </t>
     </r>
@@ -280,6 +277,9 @@
       </rPr>
       <t xml:space="preserve"> Marine Bioacoustics Research Collaborative</t>
     </r>
+  </si>
+  <si>
+    <t>Data analysis was performed using the TriHyb Remora in Triton, to produce HMD spectra of sound levels from oceanic audio recordings. Processing utilized MATLAB code provided as supplemental material in Martin et al. (2021b). Power spectral density (PSD) levels were computed from 1-minute segments of audio data. Frequency-dependent calibrations are included in the HMD. By applying fast Fourier transform (FFT) with length equal to the sample rate, using Hann window and 50% overlap, PSD estimates (V^2/Hz) were computed with a frequency resolution of 1 Hz and a temporal resolution of 1 second. The 119 PSD estimates (V^2/Hz) from each 1-minute segment were averaged (mean) and converted to decibels. The average spectrum for each minute was further processed to an HMD spectrum following Martin et al. (2021b).</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,10 +1262,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
